--- a/Fichiers Excel/Etudiants.xlsx
+++ b/Fichiers Excel/Etudiants.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XML Projet\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED7048-FE38-4733-9347-25D24D48FF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF86C8A-7516-445D-B479-4B8DF2C62BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
+    <workbookView xWindow="3804" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$H$6</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="185">
   <si>
     <t>aimane.chanaa@etu.uae.ac.ma</t>
   </si>
@@ -561,9 +570,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>id_apogee</t>
-  </si>
-  <si>
     <t>prenom</t>
   </si>
   <si>
@@ -571,6 +577,18 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>min date</t>
+  </si>
+  <si>
+    <t>max date</t>
+  </si>
+  <si>
+    <t>date_naissance</t>
+  </si>
+  <si>
+    <t>id_etudiant</t>
   </si>
 </sst>
 </file>
@@ -636,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,9 +665,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,7 +685,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -962,38 +981,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B64336D-A8B6-497C-8125-6CEC32FF5B41}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>20000773</v>
       </c>
@@ -1009,8 +1039,18 @@
       <c r="E2" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <f ca="1">RANDBETWEEN($I$2,$J$2)</f>
+        <v>37429</v>
+      </c>
+      <c r="I2" s="4">
+        <v>36526</v>
+      </c>
+      <c r="J2" s="4">
+        <v>37986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>19001211</v>
       </c>
@@ -1026,8 +1066,12 @@
       <c r="E3" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F63" ca="1" si="0">RANDBETWEEN($I$2,$J$2)</f>
+        <v>37071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>19001137</v>
       </c>
@@ -1043,8 +1087,12 @@
       <c r="E4" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>20000734</v>
       </c>
@@ -1060,8 +1108,12 @@
       <c r="E5" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>20000761</v>
       </c>
@@ -1077,8 +1129,12 @@
       <c r="E6" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>19001276</v>
       </c>
@@ -1094,8 +1150,12 @@
       <c r="E7" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>20001244</v>
       </c>
@@ -1111,8 +1171,12 @@
       <c r="E8" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>20000493</v>
       </c>
@@ -1128,8 +1192,12 @@
       <c r="E9" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>20006988</v>
       </c>
@@ -1145,8 +1213,12 @@
       <c r="E10" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20007078</v>
       </c>
@@ -1162,8 +1234,12 @@
       <c r="E11" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>20000758</v>
       </c>
@@ -1179,8 +1255,12 @@
       <c r="E12" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>20000757</v>
       </c>
@@ -1196,8 +1276,12 @@
       <c r="E13" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>19002165</v>
       </c>
@@ -1213,8 +1297,12 @@
       <c r="E14" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>20000730</v>
       </c>
@@ -1230,8 +1318,12 @@
       <c r="E15" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>20002424</v>
       </c>
@@ -1247,8 +1339,12 @@
       <c r="E16" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>20000771</v>
       </c>
@@ -1264,8 +1360,12 @@
       <c r="E17" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>20007025</v>
       </c>
@@ -1281,8 +1381,12 @@
       <c r="E18" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>20007161</v>
       </c>
@@ -1298,8 +1402,12 @@
       <c r="E19" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20004313</v>
       </c>
@@ -1315,8 +1423,12 @@
       <c r="E20" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20007051</v>
       </c>
@@ -1332,8 +1444,12 @@
       <c r="E21" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20002432</v>
       </c>
@@ -1349,8 +1465,12 @@
       <c r="E22" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20002251</v>
       </c>
@@ -1366,8 +1486,12 @@
       <c r="E23" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>20002670</v>
       </c>
@@ -1383,8 +1507,12 @@
       <c r="E24" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>20000742</v>
       </c>
@@ -1400,8 +1528,12 @@
       <c r="E25" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>20000741</v>
       </c>
@@ -1417,8 +1549,12 @@
       <c r="E26" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>20000775</v>
       </c>
@@ -1434,8 +1570,12 @@
       <c r="E27" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>20007042</v>
       </c>
@@ -1451,8 +1591,12 @@
       <c r="E28" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>19001439</v>
       </c>
@@ -1468,8 +1612,12 @@
       <c r="E29" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>20000780</v>
       </c>
@@ -1485,8 +1633,12 @@
       <c r="E30" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>20003925</v>
       </c>
@@ -1502,8 +1654,12 @@
       <c r="E31" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>19006658</v>
       </c>
@@ -1519,8 +1675,12 @@
       <c r="E32" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>20000755</v>
       </c>
@@ -1536,8 +1696,12 @@
       <c r="E33" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>20000716</v>
       </c>
@@ -1553,8 +1717,12 @@
       <c r="E34" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>18008815</v>
       </c>
@@ -1570,8 +1738,12 @@
       <c r="E35" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>20006989</v>
       </c>
@@ -1587,8 +1759,12 @@
       <c r="E36" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>20007067</v>
       </c>
@@ -1604,8 +1780,12 @@
       <c r="E37" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>19001413</v>
       </c>
@@ -1621,8 +1801,12 @@
       <c r="E38" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>17004026</v>
       </c>
@@ -1638,8 +1822,12 @@
       <c r="E39" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>20000759</v>
       </c>
@@ -1655,8 +1843,12 @@
       <c r="E40" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>19005693</v>
       </c>
@@ -1672,8 +1864,12 @@
       <c r="E41" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>20000777</v>
       </c>
@@ -1689,8 +1885,12 @@
       <c r="E42" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>19005656</v>
       </c>
@@ -1706,8 +1906,12 @@
       <c r="E43" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>20002433</v>
       </c>
@@ -1723,8 +1927,12 @@
       <c r="E44" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>20002532</v>
       </c>
@@ -1740,8 +1948,12 @@
       <c r="E45" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>20000763</v>
       </c>
@@ -1757,8 +1969,12 @@
       <c r="E46" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>20000740</v>
       </c>
@@ -1774,8 +1990,12 @@
       <c r="E47" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>20002137</v>
       </c>
@@ -1791,8 +2011,12 @@
       <c r="E48" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>20006985</v>
       </c>
@@ -1808,8 +2032,12 @@
       <c r="E49" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>20002554</v>
       </c>
@@ -1825,8 +2053,12 @@
       <c r="E50" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>20009742</v>
       </c>
@@ -1842,8 +2074,12 @@
       <c r="E51" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>19006706</v>
       </c>
@@ -1859,8 +2095,12 @@
       <c r="E52" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>20006930</v>
       </c>
@@ -1876,8 +2116,12 @@
       <c r="E53" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>20000754</v>
       </c>
@@ -1893,8 +2137,12 @@
       <c r="E54" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>19002804</v>
       </c>
@@ -1910,8 +2158,12 @@
       <c r="E55" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>19001375</v>
       </c>
@@ -1927,8 +2179,12 @@
       <c r="E56" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>20000731</v>
       </c>
@@ -1944,8 +2200,12 @@
       <c r="E57" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>20000513</v>
       </c>
@@ -1961,8 +2221,12 @@
       <c r="E58" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>20007695</v>
       </c>
@@ -1978,8 +2242,12 @@
       <c r="E59" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>19006284</v>
       </c>
@@ -1995,8 +2263,12 @@
       <c r="E60" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>37253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>20000721</v>
       </c>
@@ -2012,8 +2284,12 @@
       <c r="E61" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>20000491</v>
       </c>
@@ -2029,8 +2305,12 @@
       <c r="E62" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36622</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>20002123</v>
       </c>
@@ -2045,6 +2325,10 @@
       </c>
       <c r="E63" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36694</v>
       </c>
     </row>
   </sheetData>

--- a/Fichiers Excel/Etudiants.xlsx
+++ b/Fichiers Excel/Etudiants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF86C8A-7516-445D-B479-4B8DF2C62BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9F011-0DFD-4BEF-B8F9-74988FC0A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8AB3C5C-8ED2-401F-9AC8-9B4CDD7E9F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>sara.boulaid@etu.uae.ac.ma</t>
   </si>
   <si>
-    <t>anas.chatt@etu.uae.ac.ma</t>
-  </si>
-  <si>
     <t>doha.dahrabou@etu.uae.ac.ma</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>id_etudiant</t>
+  </si>
+  <si>
+    <t>anas.chatt1@etu.uae.ac.ma</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B64336D-A8B6-497C-8125-6CEC32FF5B41}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,28 +999,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1037,11 +1037,11 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37429</v>
+        <v>37850</v>
       </c>
       <c r="I2" s="4">
         <v>36526</v>
@@ -1064,11 +1064,11 @@
         <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F63" ca="1" si="0">RANDBETWEEN($I$2,$J$2)</f>
-        <v>37071</v>
+        <v>37927</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1085,11 +1085,11 @@
         <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37544</v>
+        <v>37868</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,11 +1106,11 @@
         <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36536</v>
+        <v>37906</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1127,11 +1127,11 @@
         <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37418</v>
+        <v>36975</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,11 +1148,11 @@
         <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36732</v>
+        <v>37009</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1169,11 +1169,11 @@
         <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37212</v>
+        <v>37755</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,11 +1190,11 @@
         <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37813</v>
+        <v>36684</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,11 +1211,11 @@
         <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37631</v>
+        <v>36880</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,11 +1232,11 @@
         <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37894</v>
+        <v>36619</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1253,11 +1253,11 @@
         <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37670</v>
+        <v>37524</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1274,11 +1274,11 @@
         <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37453</v>
+        <v>36908</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1295,11 +1295,11 @@
         <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36805</v>
+        <v>37316</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1316,11 +1316,11 @@
         <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37700</v>
+        <v>37873</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,11 +1337,11 @@
         <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37481</v>
+        <v>37099</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,11 +1358,11 @@
         <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37271</v>
+        <v>37075</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,11 +1379,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37658</v>
+        <v>37401</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,14 +1397,14 @@
         <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37638</v>
+        <v>37104</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,14 +1418,14 @@
         <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36867</v>
+        <v>36840</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,14 +1439,14 @@
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36600</v>
+        <v>36935</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,14 +1460,14 @@
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37288</v>
+        <v>37270</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1481,14 +1481,14 @@
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36871</v>
+        <v>37397</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,14 +1502,14 @@
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37323</v>
+        <v>37947</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,14 +1523,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37945</v>
+        <v>37302</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,14 +1544,14 @@
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36653</v>
+        <v>37984</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,14 +1565,14 @@
         <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36869</v>
+        <v>37432</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,14 +1586,14 @@
         <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37629</v>
+        <v>37702</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,14 +1607,14 @@
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37198</v>
+        <v>37563</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1628,14 +1628,14 @@
         <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37367</v>
+        <v>36712</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,14 +1649,14 @@
         <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36848</v>
+        <v>36904</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,14 +1670,14 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36640</v>
+        <v>36973</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,14 +1691,14 @@
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37060</v>
+        <v>37743</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,14 +1712,14 @@
         <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37616</v>
+        <v>36562</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,14 +1733,14 @@
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36654</v>
+        <v>37293</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1754,14 +1754,14 @@
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37399</v>
+        <v>37117</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1775,14 +1775,14 @@
         <v>22</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37502</v>
+        <v>36616</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,14 +1796,14 @@
         <v>69</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37489</v>
+        <v>37517</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,14 +1817,14 @@
         <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36601</v>
+        <v>37519</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,14 +1838,14 @@
         <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36918</v>
+        <v>37773</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1859,14 +1859,14 @@
         <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37378</v>
+        <v>36540</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,14 +1880,14 @@
         <v>77</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37176</v>
+        <v>37805</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,14 +1901,14 @@
         <v>79</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37452</v>
+        <v>36575</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,14 +1922,14 @@
         <v>81</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37658</v>
+        <v>37455</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,14 +1943,14 @@
         <v>83</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37831</v>
+        <v>37020</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,14 +1964,14 @@
         <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36595</v>
+        <v>37368</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1985,14 +1985,14 @@
         <v>87</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36756</v>
+        <v>37731</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,14 +2006,14 @@
         <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37051</v>
+        <v>37032</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2027,14 +2027,14 @@
         <v>90</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37126</v>
+        <v>37239</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2048,14 +2048,14 @@
         <v>92</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36690</v>
+        <v>37580</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,14 +2069,14 @@
         <v>87</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37352</v>
+        <v>36654</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2090,14 +2090,14 @@
         <v>95</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36656</v>
+        <v>37892</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2111,14 +2111,14 @@
         <v>38</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37321</v>
+        <v>37305</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,14 +2132,14 @@
         <v>66</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37077</v>
+        <v>37206</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,14 +2153,14 @@
         <v>99</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37535</v>
+        <v>37613</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2174,14 +2174,14 @@
         <v>101</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37858</v>
+        <v>37516</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2195,14 +2195,14 @@
         <v>103</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37127</v>
+        <v>37137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,14 +2216,14 @@
         <v>105</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36649</v>
+        <v>37478</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,14 +2237,14 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37727</v>
+        <v>36612</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,14 +2258,14 @@
         <v>109</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37253</v>
+        <v>37595</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2279,14 +2279,14 @@
         <v>111</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36936</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,14 +2300,14 @@
         <v>113</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36622</v>
+        <v>36967</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2321,14 +2321,14 @@
         <v>24</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36694</v>
+        <v>37681</v>
       </c>
     </row>
   </sheetData>
